--- a/Procesos/iteraciones.xlsx
+++ b/Procesos/iteraciones.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive - Universidad Politécnica de Madrid\Escritorio\UPM\2o\TeP\MuE_Patran\Procesos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\MuE_Patran\Procesos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73383B8D-33C7-41E8-B973-6BD352CDB53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DC5CD-2225-4C85-A91D-464839A36707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1FCB477B-E99E-43E6-8EA1-9E8AF878ED80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{1FCB477B-E99E-43E6-8EA1-9E8AF878ED80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Optimizacion_Anillos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Masa</t>
   </si>
@@ -79,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +96,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +141,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -143,21 +156,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,36 +488,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A10D7E-7E39-4BDB-8593-DD53A10D9D66}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -539,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -577,7 +593,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -615,7 +631,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -653,7 +669,7 @@
         <v>122.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -691,7 +707,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -729,7 +745,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -767,7 +783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -805,7 +821,7 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -850,4 +866,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93414D9D-3F8D-4357-9CFB-AC483E0F008D}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.435</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.167</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="L3">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.435</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.159</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="L4">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.436</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.143</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.215</v>
+      </c>
+      <c r="L5">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L6">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.443</v>
+      </c>
+      <c r="J7">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="L7">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J8">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>